--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C2DDF-20CD-4DB5-81EF-25D828B8D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB036CF-73F2-44A3-A3F5-E0964694F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -472,7 +475,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J2">
         <v>2.4000000000000004</v>
@@ -573,7 +576,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>1.7200000000000002</v>
+        <v>3.72</v>
       </c>
       <c r="J3">
         <v>1.4</v>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J4">
         <v>1.44</v>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>2.6099999999999994</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J6">
         <v>2.27</v>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>2.8900000000000006</v>
+        <v>4.8900000000000006</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -748,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="I8">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J8">
         <v>2.21</v>
@@ -783,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J9">
         <v>2.1700000000000004</v>
@@ -818,7 +821,7 @@
         <v>15</v>
       </c>
       <c r="I10">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J10">
         <v>2.33</v>
@@ -853,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.95</v>
+        <v>4.95</v>
       </c>
       <c r="J11">
         <v>1.1499999999999999</v>
@@ -888,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J12">
         <v>1.27</v>
@@ -923,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>1.3699999999999999</v>
@@ -958,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J14">
         <v>1.46</v>
@@ -993,7 +996,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J15">
         <v>2.3000000000000003</v>
@@ -1028,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J16">
         <v>1.3</v>
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J17">
         <v>1.1399999999999999</v>
@@ -1098,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J18">
         <v>1.1099999999999999</v>
@@ -1133,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J19">
         <v>1.42</v>
@@ -1168,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J20">
         <v>1.23</v>
@@ -1203,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J21">
         <v>1.41</v>
@@ -1238,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J22">
         <v>2.1700000000000004</v>
@@ -1273,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J24">
         <v>1.74</v>
@@ -1343,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>2.4000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J25">
         <v>1.18</v>
@@ -1378,7 +1381,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J26">
         <v>1.01</v>
@@ -1413,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1448,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -1483,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J29">
         <v>1.56</v>
@@ -1518,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>2.4399999999999995</v>
+        <v>4.4399999999999995</v>
       </c>
       <c r="J30">
         <v>2.23</v>
@@ -1553,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J31">
         <v>0.97</v>
@@ -1588,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J32">
         <v>1.49</v>
@@ -1623,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J33">
         <v>1.95</v>
@@ -1658,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2.8200000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J34">
         <v>2.12</v>
@@ -1693,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="J35">
         <v>1.82</v>
@@ -1728,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J36">
         <v>1.76</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J37">
         <v>1.47</v>
@@ -1798,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="J38">
         <v>2.27</v>
@@ -1833,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J39">
         <v>2.35</v>
@@ -1868,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.2799999999999994</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="J40">
         <v>1.99</v>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>2.7300000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J41">
         <v>2.2800000000000002</v>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>1.9900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="J42">
         <v>1.8399999999999999</v>
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J43">
         <v>2.29</v>
@@ -2008,7 +2011,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J44">
         <v>1.89</v>
@@ -2043,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J45">
         <v>2.33</v>
@@ -2078,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J46">
         <v>1.52</v>
@@ -2113,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J47">
         <v>0.98</v>
@@ -2148,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>2.91</v>
+        <v>5.01</v>
       </c>
       <c r="J48">
         <v>2.1800000000000002</v>
@@ -2183,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J49">
         <v>1.81</v>
@@ -2218,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -2253,7 +2256,7 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J51">
         <v>2.3400000000000003</v>
@@ -2288,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.62</v>
+        <v>4.62</v>
       </c>
       <c r="J52">
         <v>1.6099999999999999</v>
@@ -2323,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J53">
         <v>1.6099999999999999</v>
@@ -2358,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="I54">
-        <v>2.2699999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J54">
         <v>2.4200000000000004</v>
@@ -2393,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="J55">
         <v>1.99</v>
@@ -2428,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="I56">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J56">
         <v>2.1</v>
@@ -2463,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>1.69</v>
+        <v>3.69</v>
       </c>
       <c r="J57">
         <v>1.56</v>
@@ -2498,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="J58">
         <v>1.0899999999999999</v>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.8200000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="I60">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J60">
         <v>1.74</v>
@@ -2603,7 +2606,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>2.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J61">
         <v>1.07</v>
@@ -2638,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J62">
         <v>2.33</v>
@@ -2673,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J63">
         <v>2.14</v>
@@ -2708,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>1.5499999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="J64">
         <v>2.3600000000000003</v>
@@ -2743,7 +2746,7 @@
         <v>15</v>
       </c>
       <c r="I65">
-        <v>2.8599999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.9700000000000006</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J66">
         <v>2.16</v>
@@ -2813,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J67">
         <v>2.0100000000000002</v>
@@ -2848,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J68">
         <v>1.49</v>
@@ -2883,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>1.92</v>
+        <v>3.92</v>
       </c>
       <c r="J69">
         <v>1.1399999999999999</v>
@@ -2918,7 +2921,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>2.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
         <v>1.76</v>
@@ -2953,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="J71">
         <v>2.3400000000000003</v>
@@ -2988,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>1.56</v>
+        <v>3.56</v>
       </c>
       <c r="J72">
         <v>2.3600000000000003</v>
@@ -3023,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J73">
         <v>2.39</v>
@@ -3058,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J74">
         <v>2.1300000000000003</v>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="J75">
         <v>2.12</v>
@@ -3128,7 +3131,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J76">
         <v>1.38</v>
@@ -3163,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J77">
         <v>1.5999999999999999</v>
@@ -3198,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="J78">
         <v>2.3200000000000003</v>
@@ -3233,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J79">
         <v>1.38</v>
@@ -3268,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>2.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J80">
         <v>1.26</v>
@@ -3303,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>2.5299999999999994</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J81">
         <v>1.26</v>
@@ -3338,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>2.4500000000000002</v>
+        <v>4.45</v>
       </c>
       <c r="J82">
         <v>1.57</v>
@@ -3373,7 +3376,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J83">
         <v>1.1099999999999999</v>
@@ -3408,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J84">
         <v>1.55</v>
@@ -3443,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J85">
         <v>1.18</v>
@@ -3478,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J86">
         <v>1.6199999999999999</v>
@@ -3513,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>2.7699999999999996</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J87">
         <v>1.3499999999999999</v>
@@ -3548,7 +3551,7 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J88">
         <v>2.2800000000000002</v>
@@ -3583,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J89">
         <v>1.1099999999999999</v>
@@ -3618,7 +3621,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>2.8</v>
+        <v>5.01</v>
       </c>
       <c r="J90">
         <v>2.33</v>
@@ -3653,7 +3656,7 @@
         <v>15</v>
       </c>
       <c r="I91">
-        <v>2.7</v>
+        <v>5.01</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J92">
         <v>2.1100000000000003</v>
@@ -3723,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J93">
         <v>0.97</v>
@@ -3758,7 +3761,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>1.7799999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J94">
         <v>1.3499999999999999</v>
@@ -3793,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="I95">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J95">
         <v>1.95</v>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -3863,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J97">
         <v>1.1199999999999999</v>
@@ -3898,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>2.71</v>
+        <v>5.01</v>
       </c>
       <c r="J98">
         <v>1.68</v>
@@ -3933,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J99">
         <v>1.2</v>
@@ -3968,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>2.5199999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J100">
         <v>1.8299999999999998</v>
@@ -4003,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J101">
         <v>1.56</v>
@@ -4038,7 +4041,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>2.7</v>
+        <v>5.01</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4073,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>2.74</v>
+        <v>4.74</v>
       </c>
       <c r="J103">
         <v>1.76</v>
@@ -4108,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="I104">
-        <v>2.7</v>
+        <v>5.01</v>
       </c>
       <c r="J104">
         <v>1.66</v>
@@ -4143,7 +4146,7 @@
         <v>11</v>
       </c>
       <c r="I105">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J105">
         <v>1.44</v>
@@ -4178,7 +4181,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J106">
         <v>1.67</v>
@@ -4213,7 +4216,7 @@
         <v>11</v>
       </c>
       <c r="I107">
-        <v>1.63</v>
+        <v>3.63</v>
       </c>
       <c r="J107">
         <v>1.8699999999999999</v>
@@ -4248,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="I108">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J108">
         <v>2.1100000000000003</v>
@@ -4283,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="I109">
-        <v>2.0600000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="J109">
         <v>2.04</v>
@@ -4318,7 +4321,7 @@
         <v>11</v>
       </c>
       <c r="I110">
-        <v>2.0499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="J110">
         <v>2.3000000000000003</v>
@@ -4353,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="I111">
-        <v>2.9299999999999997</v>
+        <v>5.01</v>
       </c>
       <c r="J111">
         <v>1.89</v>
@@ -4388,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="I112">
-        <v>2.5999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J112">
         <v>1.3299999999999998</v>
@@ -4398,6 +4401,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -5,19 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB036CF-73F2-44A3-A3F5-E0964694F366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C2DDF-20CD-4DB5-81EF-25D828B8D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -475,7 +472,7 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>4.0199999999999996</v>
+        <v>2.0199999999999996</v>
       </c>
       <c r="J2">
         <v>2.4000000000000004</v>
@@ -576,7 +573,7 @@
         <v>15</v>
       </c>
       <c r="I3">
-        <v>3.72</v>
+        <v>1.7200000000000002</v>
       </c>
       <c r="J3">
         <v>1.4</v>
@@ -611,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J4">
         <v>1.44</v>
@@ -646,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>4.6099999999999994</v>
+        <v>2.6099999999999994</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -681,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>4.8100000000000005</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J6">
         <v>2.27</v>
@@ -716,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>4.8900000000000006</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -751,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="I8">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J8">
         <v>2.21</v>
@@ -786,7 +783,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J9">
         <v>2.1700000000000004</v>
@@ -821,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="I10">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J10">
         <v>2.33</v>
@@ -856,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>4.95</v>
+        <v>2.95</v>
       </c>
       <c r="J11">
         <v>1.1499999999999999</v>
@@ -891,7 +888,7 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
       <c r="J12">
         <v>1.27</v>
@@ -926,7 +923,7 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="J13">
         <v>1.3699999999999999</v>
@@ -961,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="I14">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J14">
         <v>1.46</v>
@@ -996,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="I15">
-        <v>4.4800000000000004</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="J15">
         <v>2.3000000000000003</v>
@@ -1031,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J16">
         <v>1.3</v>
@@ -1066,7 +1063,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="J17">
         <v>1.1399999999999999</v>
@@ -1101,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="I18">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J18">
         <v>1.1099999999999999</v>
@@ -1136,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>3.96</v>
+        <v>1.96</v>
       </c>
       <c r="J19">
         <v>1.42</v>
@@ -1171,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J20">
         <v>1.23</v>
@@ -1206,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="I21">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
       <c r="J21">
         <v>1.41</v>
@@ -1241,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J22">
         <v>2.1700000000000004</v>
@@ -1276,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>4.8100000000000005</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1311,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>4.9000000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J24">
         <v>1.74</v>
@@ -1346,7 +1343,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>4.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J25">
         <v>1.18</v>
@@ -1381,7 +1378,7 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <v>4.2200000000000006</v>
+        <v>2.2200000000000006</v>
       </c>
       <c r="J26">
         <v>1.01</v>
@@ -1416,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1451,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -1486,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J29">
         <v>1.56</v>
@@ -1521,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="I30">
-        <v>4.4399999999999995</v>
+        <v>2.4399999999999995</v>
       </c>
       <c r="J30">
         <v>2.23</v>
@@ -1556,7 +1553,7 @@
         <v>11</v>
       </c>
       <c r="I31">
-        <v>4.13</v>
+        <v>2.13</v>
       </c>
       <c r="J31">
         <v>0.97</v>
@@ -1591,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>3.67</v>
+        <v>1.67</v>
       </c>
       <c r="J32">
         <v>1.49</v>
@@ -1626,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>3.8</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="J33">
         <v>1.95</v>
@@ -1661,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>4.82</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J34">
         <v>2.12</v>
@@ -1696,7 +1693,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>3.85</v>
+        <v>1.85</v>
       </c>
       <c r="J35">
         <v>1.82</v>
@@ -1731,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="I36">
-        <v>4.41</v>
+        <v>2.41</v>
       </c>
       <c r="J36">
         <v>1.76</v>
@@ -1766,7 +1763,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>4.09</v>
+        <v>2.09</v>
       </c>
       <c r="J37">
         <v>1.47</v>
@@ -1801,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="I38">
-        <v>4.37</v>
+        <v>2.37</v>
       </c>
       <c r="J38">
         <v>2.27</v>
@@ -1836,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>4.59</v>
+        <v>2.59</v>
       </c>
       <c r="J39">
         <v>2.35</v>
@@ -1871,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>4.2799999999999994</v>
+        <v>2.2799999999999994</v>
       </c>
       <c r="J40">
         <v>1.99</v>
@@ -1906,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>4.7300000000000004</v>
+        <v>2.7300000000000004</v>
       </c>
       <c r="J41">
         <v>2.2800000000000002</v>
@@ -1941,7 +1938,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>3.99</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="J42">
         <v>1.8399999999999999</v>
@@ -1976,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J43">
         <v>2.29</v>
@@ -2011,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J44">
         <v>1.89</v>
@@ -2046,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="I45">
-        <v>3.64</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="J45">
         <v>2.33</v>
@@ -2081,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>4.9800000000000004</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J46">
         <v>1.52</v>
@@ -2116,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="I47">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="J47">
         <v>0.98</v>
@@ -2151,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="I48">
-        <v>5.01</v>
+        <v>2.91</v>
       </c>
       <c r="J48">
         <v>2.1800000000000002</v>
@@ -2186,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="J49">
         <v>1.81</v>
@@ -2221,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>3.96</v>
+        <v>1.96</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -2256,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J51">
         <v>2.3400000000000003</v>
@@ -2291,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>4.62</v>
+        <v>2.62</v>
       </c>
       <c r="J52">
         <v>1.6099999999999999</v>
@@ -2326,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J53">
         <v>1.6099999999999999</v>
@@ -2361,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="I54">
-        <v>4.2699999999999996</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="J54">
         <v>2.4200000000000004</v>
@@ -2396,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="I55">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="J55">
         <v>1.99</v>
@@ -2431,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="I56">
-        <v>3.97</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="J56">
         <v>2.1</v>
@@ -2466,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="I57">
-        <v>3.69</v>
+        <v>1.69</v>
       </c>
       <c r="J57">
         <v>1.56</v>
@@ -2501,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="I58">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="J58">
         <v>1.0899999999999999</v>
@@ -2536,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>4.82</v>
+        <v>2.8200000000000003</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -2571,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="I60">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J60">
         <v>1.74</v>
@@ -2606,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="I61">
-        <v>5.01</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J61">
         <v>1.07</v>
@@ -2641,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>4.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J62">
         <v>2.33</v>
@@ -2676,7 +2673,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>4.0299999999999994</v>
+        <v>2.0299999999999994</v>
       </c>
       <c r="J63">
         <v>2.14</v>
@@ -2711,7 +2708,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>3.55</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="J64">
         <v>2.3600000000000003</v>
@@ -2746,7 +2743,7 @@
         <v>15</v>
       </c>
       <c r="I65">
-        <v>5.01</v>
+        <v>2.8599999999999994</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -2781,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>4.9700000000000006</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="J66">
         <v>2.16</v>
@@ -2816,7 +2813,7 @@
         <v>15</v>
       </c>
       <c r="I67">
-        <v>4.12</v>
+        <v>2.12</v>
       </c>
       <c r="J67">
         <v>2.0100000000000002</v>
@@ -2851,7 +2848,7 @@
         <v>15</v>
       </c>
       <c r="I68">
-        <v>4.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="J68">
         <v>1.49</v>
@@ -2886,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>3.92</v>
+        <v>1.92</v>
       </c>
       <c r="J69">
         <v>1.1399999999999999</v>
@@ -2921,7 +2918,7 @@
         <v>15</v>
       </c>
       <c r="I70">
-        <v>5.01</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J70">
         <v>1.76</v>
@@ -2956,7 +2953,7 @@
         <v>15</v>
       </c>
       <c r="I71">
-        <v>3.58</v>
+        <v>1.58</v>
       </c>
       <c r="J71">
         <v>2.3400000000000003</v>
@@ -2991,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>3.56</v>
+        <v>1.56</v>
       </c>
       <c r="J72">
         <v>2.3600000000000003</v>
@@ -3026,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>3.66</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="J73">
         <v>2.39</v>
@@ -3061,7 +3058,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>4.38</v>
+        <v>2.38</v>
       </c>
       <c r="J74">
         <v>2.1300000000000003</v>
@@ -3096,7 +3093,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>4.83</v>
+        <v>2.83</v>
       </c>
       <c r="J75">
         <v>2.12</v>
@@ -3131,7 +3128,7 @@
         <v>15</v>
       </c>
       <c r="I76">
-        <v>3.73</v>
+        <v>1.73</v>
       </c>
       <c r="J76">
         <v>1.38</v>
@@ -3166,7 +3163,7 @@
         <v>15</v>
       </c>
       <c r="I77">
-        <v>4.1500000000000004</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="J77">
         <v>1.5999999999999999</v>
@@ -3201,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>4.99</v>
+        <v>2.99</v>
       </c>
       <c r="J78">
         <v>2.3200000000000003</v>
@@ -3236,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>4.07</v>
+        <v>2.0700000000000003</v>
       </c>
       <c r="J79">
         <v>1.38</v>
@@ -3271,7 +3268,7 @@
         <v>15</v>
       </c>
       <c r="I80">
-        <v>5.01</v>
+        <v>2.8100000000000005</v>
       </c>
       <c r="J80">
         <v>1.26</v>
@@ -3306,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>4.5299999999999994</v>
+        <v>2.5299999999999994</v>
       </c>
       <c r="J81">
         <v>1.26</v>
@@ -3341,7 +3338,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>4.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="J82">
         <v>1.57</v>
@@ -3376,7 +3373,7 @@
         <v>15</v>
       </c>
       <c r="I83">
-        <v>4.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J83">
         <v>1.1099999999999999</v>
@@ -3411,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>4.93</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J84">
         <v>1.55</v>
@@ -3446,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>4.84</v>
+        <v>2.84</v>
       </c>
       <c r="J85">
         <v>1.18</v>
@@ -3481,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="I86">
-        <v>4.43</v>
+        <v>2.4299999999999997</v>
       </c>
       <c r="J86">
         <v>1.6199999999999999</v>
@@ -3516,7 +3513,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>4.7699999999999996</v>
+        <v>2.7699999999999996</v>
       </c>
       <c r="J87">
         <v>1.3499999999999999</v>
@@ -3551,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>4.21</v>
+        <v>2.21</v>
       </c>
       <c r="J88">
         <v>2.2800000000000002</v>
@@ -3586,7 +3583,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>4.32</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="J89">
         <v>1.1099999999999999</v>
@@ -3621,7 +3618,7 @@
         <v>15</v>
       </c>
       <c r="I90">
-        <v>5.01</v>
+        <v>2.8</v>
       </c>
       <c r="J90">
         <v>2.33</v>
@@ -3656,7 +3653,7 @@
         <v>15</v>
       </c>
       <c r="I91">
-        <v>5.01</v>
+        <v>2.7</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -3691,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J92">
         <v>2.1100000000000003</v>
@@ -3726,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>3.96</v>
+        <v>1.96</v>
       </c>
       <c r="J93">
         <v>0.97</v>
@@ -3761,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="I94">
-        <v>3.78</v>
+        <v>1.7799999999999998</v>
       </c>
       <c r="J94">
         <v>1.3499999999999999</v>
@@ -3796,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="I95">
-        <v>4.04</v>
+        <v>2.04</v>
       </c>
       <c r="J95">
         <v>1.95</v>
@@ -3831,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>3.79</v>
+        <v>1.79</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -3866,7 +3863,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>4.4700000000000006</v>
+        <v>2.4700000000000006</v>
       </c>
       <c r="J97">
         <v>1.1199999999999999</v>
@@ -3901,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="I98">
-        <v>5.01</v>
+        <v>2.71</v>
       </c>
       <c r="J98">
         <v>1.68</v>
@@ -3936,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>4.9000000000000004</v>
+        <v>2.9000000000000004</v>
       </c>
       <c r="J99">
         <v>1.2</v>
@@ -3971,7 +3968,7 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>4.5199999999999996</v>
+        <v>2.5199999999999996</v>
       </c>
       <c r="J100">
         <v>1.8299999999999998</v>
@@ -4006,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="I101">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J101">
         <v>1.56</v>
@@ -4041,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="I102">
-        <v>5.01</v>
+        <v>2.7</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4076,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>4.74</v>
+        <v>2.74</v>
       </c>
       <c r="J103">
         <v>1.76</v>
@@ -4111,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="I104">
-        <v>5.01</v>
+        <v>2.7</v>
       </c>
       <c r="J104">
         <v>1.66</v>
@@ -4146,7 +4143,7 @@
         <v>11</v>
       </c>
       <c r="I105">
-        <v>4.0199999999999996</v>
+        <v>2.0199999999999996</v>
       </c>
       <c r="J105">
         <v>1.44</v>
@@ -4181,7 +4178,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <v>1.67</v>
@@ -4216,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="I107">
-        <v>3.63</v>
+        <v>1.63</v>
       </c>
       <c r="J107">
         <v>1.8699999999999999</v>
@@ -4251,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="I108">
-        <v>4.1099999999999994</v>
+        <v>2.1099999999999994</v>
       </c>
       <c r="J108">
         <v>2.1100000000000003</v>
@@ -4286,7 +4283,7 @@
         <v>15</v>
       </c>
       <c r="I109">
-        <v>4.0600000000000005</v>
+        <v>2.0600000000000005</v>
       </c>
       <c r="J109">
         <v>2.04</v>
@@ -4321,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="I110">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J110">
         <v>2.3000000000000003</v>
@@ -4356,7 +4353,7 @@
         <v>11</v>
       </c>
       <c r="I111">
-        <v>5.01</v>
+        <v>2.9299999999999997</v>
       </c>
       <c r="J111">
         <v>1.89</v>
@@ -4391,7 +4388,7 @@
         <v>15</v>
       </c>
       <c r="I112">
-        <v>4.5999999999999996</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="J112">
         <v>1.3299999999999998</v>
@@ -4401,7 +4398,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C2DDF-20CD-4DB5-81EF-25D828B8D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710B6A9-8F11-4077-AE9F-4DDB98AB9197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,20 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -513,12 +516,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -526,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J2">
         <v>2.4000000000000004</v>
@@ -548,17 +551,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -567,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>1.7200000000000002</v>
+        <v>3.72</v>
       </c>
       <c r="J3">
         <v>1.4</v>
@@ -583,12 +586,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I4">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J4">
         <v>1.44</v>
@@ -618,12 +621,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="I5">
-        <v>2.6099999999999994</v>
+        <v>4.6099999999999994</v>
       </c>
       <c r="J5">
         <v>1.8</v>
@@ -653,12 +656,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -678,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J6">
         <v>2.27</v>
@@ -688,12 +691,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -713,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>2.8900000000000006</v>
+        <v>4.8900000000000006</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -723,17 +726,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+      <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -742,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J8">
         <v>2.21</v>
@@ -758,12 +761,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -783,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J9">
         <v>2.1700000000000004</v>
@@ -793,17 +796,17 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J10">
         <v>2.33</v>
@@ -828,12 +831,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
@@ -853,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.95</v>
+        <v>4.95</v>
       </c>
       <c r="J11">
         <v>1.1499999999999999</v>
@@ -863,17 +866,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -882,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J12">
         <v>1.27</v>
@@ -898,17 +901,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -920,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="J13">
         <v>1.3699999999999999</v>
@@ -933,17 +936,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -952,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J14">
         <v>1.46</v>
@@ -968,32 +971,32 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>2.4800000000000004</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="J15">
         <v>2.3000000000000003</v>
@@ -1003,12 +1006,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="I16">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J16">
         <v>1.3</v>
@@ -1038,10 +1041,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1063,7 +1066,7 @@
         <v>15</v>
       </c>
       <c r="I17">
-        <v>1.98</v>
+        <v>3.98</v>
       </c>
       <c r="J17">
         <v>1.1399999999999999</v>
@@ -1073,17 +1076,17 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
+      <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,10 +1098,10 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J18">
         <v>1.1099999999999999</v>
@@ -1108,17 +1111,17 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
+      <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1127,13 +1130,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J19">
         <v>1.42</v>
@@ -1143,12 +1146,12 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>11</v>
       </c>
       <c r="I20">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J20">
         <v>1.23</v>
@@ -1178,32 +1181,32 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
+      <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
-        <v>2.08</v>
+        <v>4.08</v>
       </c>
       <c r="J21">
         <v>1.41</v>
@@ -1213,12 +1216,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J22">
         <v>2.1700000000000004</v>
@@ -1248,12 +1251,12 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1283,12 +1286,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J24">
         <v>1.74</v>
@@ -1318,32 +1321,32 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
+      <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25">
-        <v>2.4000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J25">
         <v>1.18</v>
@@ -1353,32 +1356,32 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
+      <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26">
-        <v>2.2200000000000006</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="J26">
         <v>1.01</v>
@@ -1388,12 +1391,12 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="I27">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J27">
         <v>1.6199999999999999</v>
@@ -1423,12 +1426,12 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="I28">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J28">
         <v>1.4</v>
@@ -1458,17 +1461,17 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
+      <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1477,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I29">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J29">
         <v>1.56</v>
@@ -1493,32 +1496,32 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
+      <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30">
-        <v>2.4399999999999995</v>
+        <v>4.4399999999999995</v>
       </c>
       <c r="J30">
         <v>2.23</v>
@@ -1528,17 +1531,17 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1547,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>2.13</v>
+        <v>4.13</v>
       </c>
       <c r="J31">
         <v>0.97</v>
@@ -1563,12 +1566,12 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>1.67</v>
+        <v>3.67</v>
       </c>
       <c r="J32">
         <v>1.49</v>
@@ -1598,17 +1601,17 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
+      <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1617,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>1.7999999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="J33">
         <v>1.95</v>
@@ -1633,12 +1636,12 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2.8200000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J34">
         <v>2.12</v>
@@ -1668,12 +1671,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>15</v>
       </c>
       <c r="I35">
-        <v>1.85</v>
+        <v>3.85</v>
       </c>
       <c r="J35">
         <v>1.82</v>
@@ -1703,17 +1706,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36">
+      <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1722,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
-        <v>2.41</v>
+        <v>4.41</v>
       </c>
       <c r="J36">
         <v>1.76</v>
@@ -1738,12 +1741,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="I37">
-        <v>2.09</v>
+        <v>4.09</v>
       </c>
       <c r="J37">
         <v>1.47</v>
@@ -1773,17 +1776,17 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38">
+      <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1795,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38">
-        <v>2.37</v>
+        <v>4.37</v>
       </c>
       <c r="J38">
         <v>2.27</v>
@@ -1808,12 +1811,12 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>15</v>
       </c>
       <c r="I39">
-        <v>2.59</v>
+        <v>4.59</v>
       </c>
       <c r="J39">
         <v>2.35</v>
@@ -1843,12 +1846,12 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="I40">
-        <v>2.2799999999999994</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="J40">
         <v>1.99</v>
@@ -1878,12 +1881,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
       </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="I41">
-        <v>2.7300000000000004</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="J41">
         <v>2.2800000000000002</v>
@@ -1913,12 +1916,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>11</v>
       </c>
       <c r="I42">
-        <v>1.9900000000000002</v>
+        <v>3.99</v>
       </c>
       <c r="J42">
         <v>1.8399999999999999</v>
@@ -1948,12 +1951,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J43">
         <v>2.29</v>
@@ -1983,17 +1986,17 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44">
+      <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2002,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I44">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J44">
         <v>1.89</v>
@@ -2018,17 +2021,17 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45">
+      <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2040,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45">
-        <v>1.6400000000000001</v>
+        <v>3.64</v>
       </c>
       <c r="J45">
         <v>2.33</v>
@@ -2053,12 +2056,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J46">
         <v>1.52</v>
@@ -2088,32 +2091,32 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47">
+      <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="J47">
         <v>0.98</v>
@@ -2123,17 +2126,17 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48">
+      <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2145,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
-        <v>2.91</v>
+        <v>4.91</v>
       </c>
       <c r="J48">
         <v>2.1800000000000002</v>
@@ -2158,12 +2161,12 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>16</v>
       </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2.17</v>
+        <v>4.17</v>
       </c>
       <c r="J49">
         <v>1.81</v>
@@ -2193,12 +2196,12 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>16</v>
       </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
@@ -2218,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="I50">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -2228,17 +2231,17 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2247,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J51">
         <v>2.3400000000000003</v>
@@ -2263,12 +2266,12 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
       <c r="C52" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="I52">
-        <v>2.62</v>
+        <v>4.62</v>
       </c>
       <c r="J52">
         <v>1.6099999999999999</v>
@@ -2298,12 +2301,12 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>11</v>
       </c>
       <c r="I53">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J53">
         <v>1.6099999999999999</v>
@@ -2333,32 +2336,32 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54">
+      <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>2.2699999999999996</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J54">
         <v>2.4200000000000004</v>
@@ -2368,32 +2371,32 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
+      <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>2.96</v>
+        <v>4.96</v>
       </c>
       <c r="J55">
         <v>1.99</v>
@@ -2403,32 +2406,32 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56">
+      <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
-        <v>1.9700000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="J56">
         <v>2.1</v>
@@ -2438,17 +2441,17 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57">
+      <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2457,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
-        <v>1.69</v>
+        <v>3.69</v>
       </c>
       <c r="J57">
         <v>1.56</v>
@@ -2473,17 +2476,17 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58">
+      <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2492,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="J58">
         <v>1.0899999999999999</v>
@@ -2508,12 +2511,12 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
       <c r="C59" t="s">
         <v>9</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.8200000000000003</v>
+        <v>4.82</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -2543,12 +2546,12 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="I60">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J60">
         <v>1.74</v>
@@ -2578,17 +2581,17 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61">
+      <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2597,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>2.9800000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J61">
         <v>1.07</v>
@@ -2613,17 +2616,17 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62">
+      <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2632,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="J62">
         <v>2.33</v>
@@ -2648,12 +2651,12 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>2.0299999999999994</v>
+        <v>4.0299999999999994</v>
       </c>
       <c r="J63">
         <v>2.14</v>
@@ -2683,17 +2686,17 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64">
+      <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2702,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
-        <v>1.5499999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="J64">
         <v>2.3600000000000003</v>
@@ -2718,17 +2721,17 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65">
+      <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65">
-        <v>2.8599999999999994</v>
+        <v>4.8599999999999994</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -2753,12 +2756,12 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.9700000000000006</v>
+        <v>4.9700000000000006</v>
       </c>
       <c r="J66">
         <v>2.16</v>
@@ -2788,17 +2791,17 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67">
+      <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2810,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I67">
-        <v>2.12</v>
+        <v>4.12</v>
       </c>
       <c r="J67">
         <v>2.0100000000000002</v>
@@ -2823,17 +2826,17 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68">
+      <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2845,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I68">
-        <v>2.6400000000000006</v>
+        <v>4.6400000000000006</v>
       </c>
       <c r="J68">
         <v>1.49</v>
@@ -2858,17 +2861,17 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
+      <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
-        <v>1.92</v>
+        <v>3.92</v>
       </c>
       <c r="J69">
         <v>1.1399999999999999</v>
@@ -2893,17 +2896,17 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70">
+      <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2915,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J70">
         <v>1.76</v>
@@ -2928,17 +2931,17 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71">
+      <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2947,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71">
-        <v>1.58</v>
+        <v>3.58</v>
       </c>
       <c r="J71">
         <v>2.3400000000000003</v>
@@ -2963,12 +2966,12 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="I72">
-        <v>1.56</v>
+        <v>3.56</v>
       </c>
       <c r="J72">
         <v>2.3600000000000003</v>
@@ -2998,12 +3001,12 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="I73">
-        <v>1.6600000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="J73">
         <v>2.39</v>
@@ -3033,12 +3036,12 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>8</v>
       </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="I74">
-        <v>2.38</v>
+        <v>4.38</v>
       </c>
       <c r="J74">
         <v>2.1300000000000003</v>
@@ -3068,12 +3071,12 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.83</v>
+        <v>4.83</v>
       </c>
       <c r="J75">
         <v>2.12</v>
@@ -3103,17 +3106,17 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76">
+      <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3122,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I76">
-        <v>1.73</v>
+        <v>3.73</v>
       </c>
       <c r="J76">
         <v>1.38</v>
@@ -3138,17 +3141,17 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77">
+      <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3157,13 +3160,13 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I77">
-        <v>2.1500000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J77">
         <v>1.5999999999999999</v>
@@ -3173,12 +3176,12 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>16</v>
       </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
@@ -3198,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="J78">
         <v>2.3200000000000003</v>
@@ -3208,12 +3211,12 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="I79">
-        <v>2.0700000000000003</v>
+        <v>4.07</v>
       </c>
       <c r="J79">
         <v>1.38</v>
@@ -3243,17 +3246,17 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80">
+      <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3262,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80">
-        <v>2.8100000000000005</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="J80">
         <v>1.26</v>
@@ -3278,12 +3281,12 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
       <c r="C81" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="I81">
-        <v>2.5299999999999994</v>
+        <v>4.5299999999999994</v>
       </c>
       <c r="J81">
         <v>1.26</v>
@@ -3313,12 +3316,12 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
       <c r="C82" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="I82">
-        <v>2.4500000000000002</v>
+        <v>4.45</v>
       </c>
       <c r="J82">
         <v>1.57</v>
@@ -3348,17 +3351,17 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83">
+      <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3367,13 +3370,13 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I83">
-        <v>2.4900000000000002</v>
+        <v>4.49</v>
       </c>
       <c r="J83">
         <v>1.1099999999999999</v>
@@ -3383,12 +3386,12 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>8</v>
       </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
       <c r="C84" t="s">
         <v>9</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>2.9299999999999997</v>
+        <v>4.93</v>
       </c>
       <c r="J84">
         <v>1.55</v>
@@ -3418,12 +3421,12 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.84</v>
+        <v>4.84</v>
       </c>
       <c r="J85">
         <v>1.18</v>
@@ -3453,17 +3456,17 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86">
+      <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3472,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I86">
-        <v>2.4299999999999997</v>
+        <v>4.43</v>
       </c>
       <c r="J86">
         <v>1.6199999999999999</v>
@@ -3488,12 +3491,12 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>16</v>
       </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>15</v>
       </c>
       <c r="I87">
-        <v>2.7699999999999996</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J87">
         <v>1.3499999999999999</v>
@@ -3523,17 +3526,17 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88">
+      <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3542,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I88">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="J88">
         <v>2.2800000000000002</v>
@@ -3558,12 +3561,12 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>16</v>
       </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
       <c r="C89" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>15</v>
       </c>
       <c r="I89">
-        <v>2.3200000000000003</v>
+        <v>4.32</v>
       </c>
       <c r="J89">
         <v>1.1099999999999999</v>
@@ -3593,17 +3596,17 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90">
+      <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3612,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I90">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="J90">
         <v>2.33</v>
@@ -3628,32 +3631,32 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B91">
+      <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -3663,12 +3666,12 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>8</v>
       </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="I92">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J92">
         <v>2.1100000000000003</v>
@@ -3698,12 +3701,12 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>8</v>
       </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="I93">
-        <v>1.96</v>
+        <v>3.96</v>
       </c>
       <c r="J93">
         <v>0.97</v>
@@ -3733,17 +3736,17 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94">
+      <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3752,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
-        <v>1.7799999999999998</v>
+        <v>3.78</v>
       </c>
       <c r="J94">
         <v>1.3499999999999999</v>
@@ -3768,17 +3771,17 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95">
+      <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3787,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95">
-        <v>2.04</v>
+        <v>4.04</v>
       </c>
       <c r="J95">
         <v>1.95</v>
@@ -3803,12 +3806,12 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="I96">
-        <v>1.79</v>
+        <v>3.79</v>
       </c>
       <c r="J96">
         <v>2.25</v>
@@ -3838,12 +3841,12 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>8</v>
       </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
@@ -3863,7 +3866,7 @@
         <v>11</v>
       </c>
       <c r="I97">
-        <v>2.4700000000000006</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="J97">
         <v>1.1199999999999999</v>
@@ -3873,17 +3876,17 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98">
+      <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98">
-        <v>2.71</v>
+        <v>4.71</v>
       </c>
       <c r="J98">
         <v>1.68</v>
@@ -3908,12 +3911,12 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.9000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J99">
         <v>1.2</v>
@@ -3943,12 +3946,12 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
       <c r="C100" t="s">
         <v>9</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="I100">
-        <v>2.5199999999999996</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="J100">
         <v>1.8299999999999998</v>
@@ -3978,17 +3981,17 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101">
+      <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4000,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101">
-        <v>2.1099999999999994</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="J101">
         <v>1.56</v>
@@ -4013,17 +4016,17 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102">
+      <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4032,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4048,12 +4051,12 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="I103">
-        <v>2.74</v>
+        <v>4.74</v>
       </c>
       <c r="J103">
         <v>1.76</v>
@@ -4083,17 +4086,17 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104">
+      <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4102,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I104">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J104">
         <v>1.66</v>
@@ -4118,32 +4121,32 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105">
+      <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I105">
-        <v>2.0199999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J105">
         <v>1.44</v>
@@ -4152,252 +4155,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106">
-        <v>1.67</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107">
-        <v>106</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107">
-        <v>1.63</v>
-      </c>
-      <c r="J107">
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108">
-        <v>107</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>2.1099999999999994</v>
-      </c>
-      <c r="J108">
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109">
-        <v>108</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109">
-        <v>2.0600000000000005</v>
-      </c>
-      <c r="J109">
-        <v>2.04</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110">
-        <v>109</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J110">
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111">
-        <v>110</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111">
-        <v>2.9299999999999997</v>
-      </c>
-      <c r="J111">
-        <v>1.89</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112">
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="J112">
-        <v>1.3299999999999998</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Everything_New\No_EyeTr\PAL\Conditions\Version_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173C2DDF-20CD-4DB5-81EF-25D828B8D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EEB7-DD5A-4CB8-A8B2-2A94E1FE1B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="20">
   <si>
     <t>Fractal_img</t>
   </si>
@@ -469,20 +472,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -513,12 +516,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -526,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -548,17 +551,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -567,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>1.7200000000000002</v>
@@ -583,11 +586,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -618,11 +621,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -653,11 +656,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -688,11 +691,11 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -723,17 +726,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+      <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -742,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>1.67</v>
@@ -758,11 +761,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -793,17 +796,17 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -812,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>2.12</v>
@@ -828,11 +831,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>16</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -863,17 +866,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -882,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>2.41</v>
@@ -898,17 +901,17 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -920,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>2.71</v>
@@ -933,17 +936,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -952,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14">
         <v>2.63</v>
@@ -968,29 +971,29 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I15">
         <v>2.4800000000000004</v>
@@ -1003,11 +1006,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1038,10 +1041,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -1073,17 +1076,17 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
+      <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1095,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <v>1.6600000000000001</v>
@@ -1108,17 +1111,17 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
+      <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1127,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I19">
         <v>1.96</v>
@@ -1143,11 +1146,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1178,29 +1181,29 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
+      <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I21">
         <v>2.08</v>
@@ -1213,11 +1216,11 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
@@ -1248,11 +1251,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>8</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1283,11 +1286,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1318,29 +1321,29 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
+      <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I25">
         <v>2.4000000000000004</v>
@@ -1353,29 +1356,29 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
+      <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I26">
         <v>2.2200000000000006</v>
@@ -1388,11 +1391,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1423,11 +1426,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1458,17 +1461,17 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
+      <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1477,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I29">
         <v>1.73</v>
@@ -1493,29 +1496,29 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
+      <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I30">
         <v>2.4399999999999995</v>
@@ -1528,17 +1531,17 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1547,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>2.13</v>
@@ -1563,11 +1566,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>16</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1598,17 +1601,17 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33">
+      <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1617,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>1.7999999999999998</v>
@@ -1633,11 +1636,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1668,11 +1671,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>16</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1703,17 +1706,17 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36">
+      <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1722,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>2.41</v>
@@ -1738,11 +1741,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>8</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1773,17 +1776,17 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38">
+      <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>2.37</v>
@@ -1808,11 +1811,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>16</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1843,11 +1846,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>8</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -1878,11 +1881,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>8</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1913,11 +1916,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
@@ -1948,11 +1951,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>8</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1983,17 +1986,17 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44">
+      <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2002,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I44">
         <v>2.0299999999999994</v>
@@ -2018,17 +2021,17 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45">
+      <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I45">
         <v>1.6400000000000001</v>
@@ -2053,11 +2056,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>16</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
@@ -2088,29 +2091,29 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47">
+      <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I47">
         <v>1.75</v>
@@ -2123,17 +2126,17 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48">
+      <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2145,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48">
         <v>2.91</v>
@@ -2158,11 +2161,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>16</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
@@ -2193,11 +2196,11 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>16</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -2228,17 +2231,17 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2247,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I51">
         <v>2.3200000000000003</v>
@@ -2263,11 +2266,11 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>16</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>9</v>
@@ -2298,11 +2301,11 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>8</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2333,29 +2336,29 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54">
+      <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I54">
         <v>2.2699999999999996</v>
@@ -2368,29 +2371,29 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
+      <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I55">
         <v>2.96</v>
@@ -2403,29 +2406,29 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56">
+      <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I56">
         <v>1.9700000000000002</v>
@@ -2438,17 +2441,17 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57">
+      <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2457,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I57">
         <v>1.69</v>
@@ -2473,17 +2476,17 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58">
+      <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2492,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I58">
         <v>2.71</v>
@@ -2508,11 +2511,11 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>8</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2543,11 +2546,11 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>8</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2578,17 +2581,17 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61">
+      <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2597,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I61">
         <v>2.9800000000000004</v>
@@ -2613,17 +2616,17 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62">
+      <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2632,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I62">
         <v>2.2999999999999998</v>
@@ -2648,11 +2651,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>16</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -2683,17 +2686,17 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64">
+      <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2702,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I64">
         <v>1.5499999999999998</v>
@@ -2718,17 +2721,17 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65">
+      <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2740,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I65">
         <v>2.8599999999999994</v>
@@ -2753,11 +2756,11 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>8</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2788,17 +2791,17 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67">
+      <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2810,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I67">
         <v>2.12</v>
@@ -2823,17 +2826,17 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>12</v>
-      </c>
-      <c r="B68">
+      <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2845,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I68">
         <v>2.6400000000000006</v>
@@ -2858,17 +2861,17 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69">
+      <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2877,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I69">
         <v>1.92</v>
@@ -2893,17 +2896,17 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70">
+      <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2915,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I70">
         <v>2.9000000000000004</v>
@@ -2928,17 +2931,17 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71">
+      <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2947,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I71">
         <v>1.58</v>
@@ -2963,11 +2966,11 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>8</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -2998,11 +3001,11 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
         <v>16</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -3033,11 +3036,11 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>8</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -3068,11 +3071,11 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>8</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -3103,17 +3106,17 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76">
+      <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3122,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I76">
         <v>1.73</v>
@@ -3138,17 +3141,17 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77">
+      <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3157,10 +3160,10 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>2.1500000000000004</v>
@@ -3173,11 +3176,11 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>16</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -3208,11 +3211,11 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>16</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -3243,17 +3246,17 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80">
+      <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3262,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I80">
         <v>2.8100000000000005</v>
@@ -3278,11 +3281,11 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
@@ -3313,11 +3316,11 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>16</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>9</v>
@@ -3348,17 +3351,17 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83">
+      <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3367,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I83">
         <v>2.4900000000000002</v>
@@ -3383,11 +3386,11 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
         <v>8</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -3418,11 +3421,11 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>8</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
@@ -3453,17 +3456,17 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86">
+      <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3472,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I86">
         <v>2.4299999999999997</v>
@@ -3488,11 +3491,11 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>16</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
@@ -3523,17 +3526,17 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88">
+      <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3542,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I88">
         <v>2.21</v>
@@ -3558,11 +3561,11 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
         <v>16</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -3593,17 +3596,17 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B90">
+      <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3612,10 +3615,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I90">
         <v>2.8</v>
@@ -3628,29 +3631,29 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>12</v>
-      </c>
-      <c r="B91">
+      <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I91">
         <v>2.7</v>
@@ -3663,11 +3666,11 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
         <v>8</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -3698,11 +3701,11 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
         <v>8</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -3733,17 +3736,17 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94">
+      <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3752,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I94">
         <v>1.7799999999999998</v>
@@ -3768,17 +3771,17 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95">
+      <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3787,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I95">
         <v>2.04</v>
@@ -3803,11 +3806,11 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
         <v>8</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
@@ -3838,11 +3841,11 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
         <v>8</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -3873,17 +3876,17 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>12</v>
-      </c>
-      <c r="B98">
+      <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3892,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I98">
         <v>2.71</v>
@@ -3908,11 +3911,11 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
         <v>8</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -3943,11 +3946,11 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>16</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -3978,17 +3981,17 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101">
+      <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4000,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I101">
         <v>2.1099999999999994</v>
@@ -4013,17 +4016,17 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102">
+      <c r="A102">
         <v>101</v>
       </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4032,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I102">
         <v>2.7</v>
@@ -4048,11 +4051,11 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>8</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
@@ -4083,17 +4086,17 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104">
+      <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4102,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I104">
         <v>2.7</v>
@@ -4118,29 +4121,29 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105">
+      <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I105">
         <v>2.0199999999999996</v>
@@ -4152,252 +4155,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106">
-        <v>105</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>14</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
-        <v>15</v>
-      </c>
-      <c r="I106">
-        <v>3</v>
-      </c>
-      <c r="J106">
-        <v>1.67</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107">
-        <v>106</v>
-      </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107">
-        <v>1.63</v>
-      </c>
-      <c r="J107">
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108">
-        <v>107</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108">
-        <v>2.1099999999999994</v>
-      </c>
-      <c r="J108">
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109">
-        <v>108</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109">
-        <v>2.0600000000000005</v>
-      </c>
-      <c r="J109">
-        <v>2.04</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>12</v>
-      </c>
-      <c r="B110">
-        <v>109</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J110">
-        <v>2.3000000000000003</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111">
-        <v>110</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111">
-        <v>2.9299999999999997</v>
-      </c>
-      <c r="J111">
-        <v>1.89</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112">
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="J112">
-        <v>1.3299999999999998</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:K112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710B6A9-8F11-4077-AE9F-4DDB98AB9197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E81A2B-3FF6-4EB2-BBAB-898AF48B12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>4.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J6">
         <v>2.27</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>4.8900000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>4.95</v>
+        <v>5.01</v>
       </c>
       <c r="J11">
         <v>1.1499999999999999</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>4.71</v>
+        <v>5.01</v>
       </c>
       <c r="J13">
         <v>1.3699999999999999</v>
@@ -1276,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>4.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J24">
         <v>1.74</v>
@@ -1661,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="J34">
         <v>2.12</v>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J46">
         <v>1.52</v>
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>4.91</v>
+        <v>5.01</v>
       </c>
       <c r="J48">
         <v>2.1800000000000002</v>
@@ -2396,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="J55">
         <v>1.99</v>
@@ -2501,7 +2501,7 @@
         <v>15</v>
       </c>
       <c r="I58">
-        <v>4.71</v>
+        <v>5.01</v>
       </c>
       <c r="J58">
         <v>1.0899999999999999</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -2606,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>4.9800000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J61">
         <v>1.07</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>4.8599999999999994</v>
+        <v>5.01</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>4.9700000000000006</v>
+        <v>5.01</v>
       </c>
       <c r="J66">
         <v>2.16</v>
@@ -2921,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J70">
         <v>1.76</v>
@@ -3096,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>4.83</v>
+        <v>5.01</v>
       </c>
       <c r="J75">
         <v>2.12</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="J78">
         <v>2.3200000000000003</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>4.8100000000000005</v>
+        <v>5.01</v>
       </c>
       <c r="J80">
         <v>1.26</v>
@@ -3411,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>4.93</v>
+        <v>5.01</v>
       </c>
       <c r="J84">
         <v>1.55</v>
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>4.84</v>
+        <v>5.01</v>
       </c>
       <c r="J85">
         <v>1.18</v>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>4.8</v>
+        <v>5.01</v>
       </c>
       <c r="J90">
         <v>2.33</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>4.7</v>
+        <v>5.01</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -3901,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>4.71</v>
+        <v>5.01</v>
       </c>
       <c r="J98">
         <v>1.68</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>4.9000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="J99">
         <v>1.2</v>
@@ -4041,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="I102">
-        <v>4.7</v>
+        <v>5.01</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4111,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>4.7</v>
+        <v>5.01</v>
       </c>
       <c r="J104">
         <v>1.66</v>

--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\PAL\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E81A2B-3FF6-4EB2-BBAB-898AF48B12E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68373440-E72F-452A-8B7D-B89B9A6B6B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>

--- a/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
+++ b/Conditions/Version_1/PAL_Deterministic Schedule_V1_H1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Conditions\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EEB7-DD5A-4CB8-A8B2-2A94E1FE1B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0949F7-5E00-42D1-B14A-5488C7C5A581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12290" yWindow="1080" windowWidth="25930" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="I6">
-        <v>2.8100000000000005</v>
+        <v>3.01</v>
       </c>
       <c r="J6">
         <v>2.27</v>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="I7">
-        <v>2.8900000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J7">
         <v>1.05</v>
@@ -856,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="I11">
-        <v>2.95</v>
+        <v>3.01</v>
       </c>
       <c r="J11">
         <v>1.1499999999999999</v>
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>3.01</v>
       </c>
       <c r="J13">
         <v>1.3699999999999999</v>
@@ -1276,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>2.8100000000000005</v>
+        <v>3.01</v>
       </c>
       <c r="J23">
         <v>1.52</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J24">
         <v>1.74</v>
@@ -1661,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2.8200000000000003</v>
+        <v>3.01</v>
       </c>
       <c r="J34">
         <v>2.12</v>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="I46">
-        <v>2.9800000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J46">
         <v>1.52</v>
@@ -2151,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>2.91</v>
+        <v>3.01</v>
       </c>
       <c r="J48">
         <v>2.1800000000000002</v>
@@ -2396,7 +2396,7 @@
         <v>15</v>
       </c>
       <c r="I55">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="J55">
         <v>1.99</v>
@@ -2501,7 +2501,7 @@
         <v>15</v>
       </c>
       <c r="I58">
-        <v>2.71</v>
+        <v>3.01</v>
       </c>
       <c r="J58">
         <v>1.0899999999999999</v>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="I59">
-        <v>2.8200000000000003</v>
+        <v>3.01</v>
       </c>
       <c r="J59">
         <v>1.95</v>
@@ -2606,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="I61">
-        <v>2.9800000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J61">
         <v>1.07</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="I65">
-        <v>2.8599999999999994</v>
+        <v>3.01</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="I66">
-        <v>2.9700000000000006</v>
+        <v>3.01</v>
       </c>
       <c r="J66">
         <v>2.16</v>
@@ -2921,7 +2921,7 @@
         <v>11</v>
       </c>
       <c r="I70">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J70">
         <v>1.76</v>
@@ -3096,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="I75">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
       <c r="J75">
         <v>2.12</v>
@@ -3201,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="I78">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="J78">
         <v>2.3200000000000003</v>
@@ -3271,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="I80">
-        <v>2.8100000000000005</v>
+        <v>3.01</v>
       </c>
       <c r="J80">
         <v>1.26</v>
@@ -3411,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="I84">
-        <v>2.9299999999999997</v>
+        <v>3.01</v>
       </c>
       <c r="J84">
         <v>1.55</v>
@@ -3446,7 +3446,7 @@
         <v>11</v>
       </c>
       <c r="I85">
-        <v>2.84</v>
+        <v>3.01</v>
       </c>
       <c r="J85">
         <v>1.18</v>
@@ -3621,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="I90">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="J90">
         <v>2.33</v>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="I91">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="J91">
         <v>1.01</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>15</v>
@@ -3901,7 +3901,7 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <v>2.71</v>
+        <v>3.01</v>
       </c>
       <c r="J98">
         <v>1.68</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="I99">
-        <v>2.9000000000000004</v>
+        <v>3.01</v>
       </c>
       <c r="J99">
         <v>1.2</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -4035,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
       </c>
       <c r="I102">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="J102">
         <v>1.1399999999999999</v>
@@ -4111,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="J104">
         <v>1.66</v>
